--- a/archivos/archivo_profe.xlsx
+++ b/archivos/archivo_profe.xlsx
@@ -909,7 +909,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
